--- a/inflation1.xlsx
+++ b/inflation1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garet\Desktop\UM BCS in AI\Semester 1\WIX1007\Group project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1FDCFF-6526-4404-96D8-13FD6E962FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AFCFF9-B878-48FF-8DD0-E7D6E4914306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="825" windowWidth="19410" windowHeight="15030" xr2:uid="{4BE46E31-D2A0-459E-9964-057F751570DE}"/>
+    <workbookView xWindow="6255" yWindow="705" windowWidth="19410" windowHeight="15030" xr2:uid="{4BE46E31-D2A0-459E-9964-057F751570DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Inflation Rate (%)</t>
+    <t>Annual Change</t>
   </si>
   <si>
-    <t>Annual Change</t>
+    <t xml:space="preserve">Inflation_Rate </t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A2:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,10 +417,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
